--- a/nedlastede data/areal/Boliger2015-2023_statistikk_til_TFK.xlsx
+++ b/nedlastede data/areal/Boliger2015-2023_statistikk_til_TFK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\ByutviklingDriftKultur\By- og stedsutvikling\Landbruk og geodata\Geodata\Sigurd\Tabeller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{091E2C72-9EC1-40BC-85EC-B851F2313650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82236098-0376-4C6B-A636-F9D029AB3183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="13">
   <si>
     <t>BOLIGBYGGING I SKIEN OG PORSGRUNN</t>
   </si>
@@ -67,16 +67,10 @@
     <t>Porsgrunn.</t>
   </si>
   <si>
-    <t>2015-2021</t>
-  </si>
-  <si>
     <t>år</t>
   </si>
   <si>
     <t>ant. nye boliger</t>
-  </si>
-  <si>
-    <t>2015-2022</t>
   </si>
   <si>
     <t>2015-2023</t>
@@ -242,7 +236,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -331,7 +325,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -349,6 +342,14 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -502,10 +503,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Graf!$G$3:$G$10</c:f>
+              <c:f>Graf!$G$3:$G$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>2015</c:v>
                 </c:pt>
@@ -530,15 +531,18 @@
                 <c:pt idx="7">
                   <c:v>2022</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>2023</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Graf!$H$3:$H$10</c:f>
+              <c:f>Graf!$H$3:$H$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>219</c:v>
                 </c:pt>
@@ -562,6 +566,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>182</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -987,10 +994,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Graf!$G$16:$G$23</c:f>
+              <c:f>Graf!$G$16:$G$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>2015</c:v>
                 </c:pt>
@@ -1015,15 +1022,18 @@
                 <c:pt idx="7">
                   <c:v>2022</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>2023</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Graf!$H$16:$H$23</c:f>
+              <c:f>Graf!$H$16:$H$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>55</c:v>
                 </c:pt>
@@ -1047,6 +1057,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2754,7 +2767,7 @@
   <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2775,7 +2788,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H2" s="4"/>
       <c r="N2" s="4"/>
@@ -3087,7 +3100,7 @@
       <c r="N12" s="4"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="34">
+      <c r="A13" s="33">
         <v>2022</v>
       </c>
       <c r="B13" s="12">
@@ -3096,15 +3109,15 @@
       <c r="C13" s="12">
         <v>47</v>
       </c>
-      <c r="D13" s="33">
+      <c r="D13" s="32">
         <f t="shared" si="0"/>
         <v>86.176470588235304</v>
       </c>
-      <c r="E13" s="33">
+      <c r="E13" s="32">
         <f t="shared" si="1"/>
         <v>13.823529411764707</v>
       </c>
-      <c r="H13" s="34">
+      <c r="H13" s="33">
         <v>2022</v>
       </c>
       <c r="I13" s="12">
@@ -3113,11 +3126,11 @@
       <c r="J13" s="12">
         <v>72</v>
       </c>
-      <c r="K13" s="33">
+      <c r="K13" s="32">
         <f t="shared" si="2"/>
         <v>84.968684759916485</v>
       </c>
-      <c r="L13" s="33">
+      <c r="L13" s="32">
         <f t="shared" si="3"/>
         <v>15.031315240083506</v>
       </c>
@@ -3128,76 +3141,76 @@
         <v>2023</v>
       </c>
       <c r="B14" s="12">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="C14" s="12">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="D14" s="15">
         <f t="shared" si="0"/>
-        <v>59.340659340659343</v>
+        <v>70.329670329670336</v>
       </c>
       <c r="E14" s="15">
         <f t="shared" si="1"/>
-        <v>40.659340659340657</v>
+        <v>29.670329670329672</v>
       </c>
       <c r="H14" s="8">
         <v>2023</v>
       </c>
       <c r="I14" s="12">
-        <v>470</v>
+        <v>490</v>
       </c>
       <c r="J14" s="12">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="K14" s="15">
         <f t="shared" si="2"/>
-        <v>80.617495711835332</v>
+        <v>84.048027444253862</v>
       </c>
       <c r="L14" s="15">
         <f t="shared" si="3"/>
-        <v>19.382504288164665</v>
+        <v>15.951972555746142</v>
       </c>
       <c r="N14" s="4"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B15" s="12">
         <f>SUM(B6:B14)</f>
-        <v>2153</v>
+        <v>2173</v>
       </c>
       <c r="C15" s="12">
         <f>SUM(C6:C14)</f>
-        <v>458</v>
+        <v>438</v>
       </c>
       <c r="D15" s="14">
         <f t="shared" si="0"/>
-        <v>82.458828035235541</v>
+        <v>83.224818077364986</v>
       </c>
       <c r="E15" s="14">
         <f t="shared" si="1"/>
-        <v>17.541171964764459</v>
+        <v>16.775181922635003</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I15" s="12">
         <f>SUM(I6:I14)</f>
-        <v>3626</v>
+        <v>3646</v>
       </c>
       <c r="J15" s="12">
         <f>SUM(J6:J14)</f>
-        <v>570</v>
+        <v>550</v>
       </c>
       <c r="K15" s="14">
         <f t="shared" si="2"/>
-        <v>86.41563393708293</v>
+        <v>86.892278360343184</v>
       </c>
       <c r="L15" s="14">
         <f t="shared" si="3"/>
-        <v>13.584366062917063</v>
+        <v>13.107721639656816</v>
       </c>
       <c r="N15" s="4"/>
     </row>
@@ -3386,7 +3399,7 @@
       <c r="N26" s="4"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="34">
+      <c r="A27" s="33">
         <v>2022</v>
       </c>
       <c r="B27" s="12">
@@ -3395,11 +3408,11 @@
       <c r="C27" s="12">
         <v>25</v>
       </c>
-      <c r="D27" s="33">
+      <c r="D27" s="32">
         <f t="shared" si="4"/>
         <v>82.014388489208628</v>
       </c>
-      <c r="E27" s="33">
+      <c r="E27" s="32">
         <f t="shared" si="5"/>
         <v>17.985611510791365</v>
       </c>
@@ -3429,7 +3442,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B29" s="12">
         <f>SUM(B20:B28)</f>
@@ -3477,7 +3490,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3641,20 +3654,20 @@
       </c>
     </row>
     <row r="10" spans="1:5" s="24" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="35">
+      <c r="A10" s="34">
         <v>2022</v>
       </c>
-      <c r="B10" s="36">
+      <c r="B10" s="35">
         <v>407</v>
       </c>
-      <c r="C10" s="36">
+      <c r="C10" s="35">
         <v>72</v>
       </c>
-      <c r="D10" s="37">
+      <c r="D10" s="36">
         <f t="shared" si="0"/>
         <v>84.968684759916485</v>
       </c>
-      <c r="E10" s="37">
+      <c r="E10" s="36">
         <f t="shared" si="1"/>
         <v>15.031315240083506</v>
       </c>
@@ -3663,24 +3676,24 @@
       <c r="A11" s="22">
         <v>2023</v>
       </c>
-      <c r="B11" s="38">
-        <v>470</v>
-      </c>
-      <c r="C11" s="38">
-        <v>113</v>
+      <c r="B11" s="37">
+        <v>490</v>
+      </c>
+      <c r="C11" s="37">
+        <v>93</v>
       </c>
       <c r="D11" s="23">
         <f t="shared" si="0"/>
-        <v>80.617495711835332</v>
+        <v>84.048027444253862</v>
       </c>
       <c r="E11" s="23">
         <f t="shared" si="1"/>
-        <v>19.382504288164665</v>
+        <v>15.951972555746142</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="12">
         <f>SUM(B3:B10)</f>
@@ -3707,10 +3720,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3742,10 +3755,10 @@
         <v>5</v>
       </c>
       <c r="G2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="31" t="s">
         <v>10</v>
-      </c>
-      <c r="H2" s="31" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -3759,18 +3772,18 @@
         <v>24</v>
       </c>
       <c r="D3" s="13">
-        <f t="shared" ref="D3:D10" si="0">(B3/(B3+C3))*100</f>
+        <f t="shared" ref="D3:D11" si="0">(B3/(B3+C3))*100</f>
         <v>89.041095890410958</v>
       </c>
       <c r="E3" s="13">
-        <f t="shared" ref="E3:E10" si="1">(C3/(B3+C3))*100</f>
+        <f t="shared" ref="E3:E11" si="1">(C3/(B3+C3))*100</f>
         <v>10.95890410958904</v>
       </c>
       <c r="G3" s="6">
         <v>2015</v>
       </c>
       <c r="H3" s="7">
-        <f t="shared" ref="H3:H10" si="2">B3+C3</f>
+        <f t="shared" ref="H3:H11" si="2">B3+C3</f>
         <v>219</v>
       </c>
     </row>
@@ -3931,29 +3944,55 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+      <c r="A10" s="9">
         <v>2022</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="28">
         <v>293</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="28">
         <v>47</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="14">
         <f t="shared" si="0"/>
         <v>86.176470588235304</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="14">
         <f t="shared" si="1"/>
         <v>13.823529411764707</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="9">
         <v>2022</v>
       </c>
-      <c r="H10" s="32">
+      <c r="H10" s="38">
         <f t="shared" si="2"/>
         <v>340</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B11" s="12">
+        <v>128</v>
+      </c>
+      <c r="C11" s="12">
+        <v>54</v>
+      </c>
+      <c r="D11" s="13">
+        <f t="shared" si="0"/>
+        <v>70.329670329670336</v>
+      </c>
+      <c r="E11" s="13">
+        <f t="shared" si="1"/>
+        <v>29.670329670329672</v>
+      </c>
+      <c r="G11" s="39">
+        <v>2023</v>
+      </c>
+      <c r="H11" s="40">
+        <f t="shared" si="2"/>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
@@ -3978,10 +4017,10 @@
         <v>5</v>
       </c>
       <c r="G15" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="31" t="s">
         <v>10</v>
-      </c>
-      <c r="H15" s="31" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -4028,7 +4067,7 @@
         <v>2016</v>
       </c>
       <c r="H17" s="7">
-        <f t="shared" ref="H17:H23" si="3">B17+C17</f>
+        <f t="shared" ref="H17:H24" si="3">B17+C17</f>
         <v>136</v>
       </c>
     </row>
@@ -4153,27 +4192,51 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
+      <c r="A23" s="9">
         <v>2022</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="28">
         <v>114</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="28">
         <v>25</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="14">
         <v>82.014388489208628</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="14">
         <v>17.985611510791365</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="9">
         <v>2022</v>
       </c>
-      <c r="H23" s="32">
+      <c r="H23" s="38">
         <f t="shared" si="3"/>
         <v>139</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B24" s="12">
+        <v>362</v>
+      </c>
+      <c r="C24" s="12">
+        <v>39</v>
+      </c>
+      <c r="D24" s="13">
+        <v>90</v>
+      </c>
+      <c r="E24" s="13">
+        <v>10</v>
+      </c>
+      <c r="G24" s="41">
+        <v>2023</v>
+      </c>
+      <c r="H24" s="40">
+        <f t="shared" si="3"/>
+        <v>401</v>
       </c>
     </row>
   </sheetData>
